--- a/openmp/benchmarks/OMP Results.xlsx
+++ b/openmp/benchmarks/OMP Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13480" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13480" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="omp diagram" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="cpu perf" sheetId="8" r:id="rId4"/>
     <sheet name="Instr cycle perf" sheetId="9" r:id="rId5"/>
     <sheet name="perf stat" sheetId="6" r:id="rId6"/>
+    <sheet name="loop body papi" sheetId="11" r:id="rId7"/>
+    <sheet name="barrier papi" sheetId="12" r:id="rId8"/>
+    <sheet name="papi stat" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Exclusive [msec]</t>
   </si>
@@ -57,6 +60,12 @@
   </si>
   <si>
     <t>Instructions per Cycle</t>
+  </si>
+  <si>
+    <t>L3 Cache Misses: for (loop body)</t>
+  </si>
+  <si>
+    <t>L3 Cache Misses: for (barrier enter/exit)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -151,6 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -280,11 +290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2064382888"/>
-        <c:axId val="-2064381096"/>
+        <c:axId val="-2066531096"/>
+        <c:axId val="-2067818008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064382888"/>
+        <c:axId val="-2066531096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,7 +304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064381096"/>
+        <c:crossAx val="-2067818008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -302,7 +312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064381096"/>
+        <c:axId val="-2067818008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064382888"/>
+        <c:crossAx val="-2066531096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -326,6 +336,414 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'perf stat'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time [s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'perf stat'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'perf stat'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.676426137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.663332622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.602897205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.512136331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2066405848"/>
+        <c:axId val="-2065826280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2066405848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2065826280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2065826280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066405848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'perf stat'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU utilized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'perf stat'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'perf stat'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2066569832"/>
+        <c:axId val="-2066363112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2066569832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066363112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2066363112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066569832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'perf stat'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Instructions per Cycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'perf stat'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'perf stat'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2065862840"/>
+        <c:axId val="-2065864440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2065862840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2065864440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2065864440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2065862840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -355,11 +773,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'perf stat'!$B$1</c:f>
+              <c:f>'papi stat'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time [s]</c:v>
+                  <c:v>L3 Cache Misses: for (loop body)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -367,7 +785,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'perf stat'!$A$2:$A$5</c:f>
+              <c:f>'papi stat'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -388,21 +806,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'perf stat'!$B$2:$B$5</c:f>
+              <c:f>'papi stat'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.676426137</c:v>
+                  <c:v>2.43E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.663332622</c:v>
+                  <c:v>1.473E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.602897205</c:v>
+                  <c:v>6.841E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.512136331</c:v>
+                  <c:v>3.599E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2109463224"/>
-        <c:axId val="2109465016"/>
+        <c:axId val="2124446824"/>
+        <c:axId val="2124417096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109463224"/>
+        <c:axId val="2124446824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109465016"/>
+        <c:crossAx val="2124417096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,20 +857,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109465016"/>
+        <c:axId val="2124417096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109463224"/>
+        <c:crossAx val="2124446824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -462,144 +886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'perf stat'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU utilized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'perf stat'!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'perf stat'!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2065714744"/>
-        <c:axId val="-2064268328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2065714744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064268328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2064268328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065714744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -629,11 +916,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'perf stat'!$D$1</c:f>
+              <c:f>'papi stat'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Instructions per Cycle</c:v>
+                  <c:v>L3 Cache Misses: for (barrier enter/exit)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -641,7 +928,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'perf stat'!$A$2:$A$5</c:f>
+              <c:f>'papi stat'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -662,21 +949,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'perf stat'!$D$2:$D$5</c:f>
+              <c:f>'papi stat'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.22</c:v>
+                  <c:v>76050.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78</c:v>
+                  <c:v>59330.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>43600.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18</c:v>
+                  <c:v>32180.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123796424"/>
-        <c:axId val="-2064527144"/>
+        <c:axId val="-2066381320"/>
+        <c:axId val="-2066386616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123796424"/>
+        <c:axId val="-2066381320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064527144"/>
+        <c:crossAx val="-2066386616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,20 +1000,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2064527144"/>
+        <c:axId val="-2066386616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123796424"/>
+        <c:crossAx val="-2066381320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -770,6 +1063,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -862,6 +1177,60 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9207500" cy="5617308"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9207500" cy="5617308"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1425,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1512,4 +1881,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>243000000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>76050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>147300000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>59330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>68410000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>35990000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>32180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>